--- a/file_export/huu_tri/thongbao_form.xlsx
+++ b/file_export/huu_tri/thongbao_form.xlsx
@@ -17,12 +17,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
-  <si>
-    <t>BAN CHẤP HÀNH TRUNG ƯƠNG</t>
-  </si>
-  <si>
-    <t>ĐOÀN TNCS HỒ CHÍ MINH</t>
-  </si>
   <si>
     <t>***</t>
   </si>
@@ -121,6 +115,12 @@
   </si>
   <si>
     <t>Kể từ</t>
+  </si>
+  <si>
+    <t>BỘ GIAO THÔNG VẬN TẢI</t>
+  </si>
+  <si>
+    <t>TRƯỜNG ĐẠI HỌC CÔNG NGHỆ GIAO THÔNG VẬN TẢI</t>
   </si>
 </sst>
 </file>
@@ -199,6 +199,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -221,9 +224,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,7 +529,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A14" sqref="A14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -540,243 +540,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="E31" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="F37" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="E31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="F37" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="13">
